--- a/data/trans_dic/P16A20-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A20-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04536744157611867</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.08848234764012956</v>
+        <v>0.08848234764012955</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.005792802310689413</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00145919081872322</v>
+        <v>0.001556549391322835</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001514899989222015</v>
+        <v>0.001566349167503049</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005363361445412476</v>
+        <v>0.005311416905464423</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001502717927453373</v>
+        <v>0.001516521100452092</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01667993758825786</v>
+        <v>0.01748659760389601</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03228013828040768</v>
+        <v>0.03085773826169666</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0757499450681003</v>
+        <v>0.07243624671526067</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002810652195169944</v>
+        <v>0.002818889506630673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.009742398991475514</v>
+        <v>0.009811345805856107</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01781414501944325</v>
+        <v>0.01857648759610657</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04189529417662634</v>
+        <v>0.04177941242163523</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01456363025687816</v>
+        <v>0.01669577214884473</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01047381410501188</v>
+        <v>0.009044803365341527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01388346152721098</v>
+        <v>0.01487067370381684</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0188700587822479</v>
+        <v>0.01926573699837091</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01316736905188314</v>
+        <v>0.01390784211978737</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04657195433935667</v>
+        <v>0.04367312784493689</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06346139615428679</v>
+        <v>0.06415478207411782</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1092652958212285</v>
+        <v>0.1081863467835919</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01143217043928674</v>
+        <v>0.01033704596084781</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02368122166686662</v>
+        <v>0.02487815811726331</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03585413946008522</v>
+        <v>0.0365025340485757</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06019301176599804</v>
+        <v>0.0607683266266793</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.02553994784343908</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04707142172238712</v>
+        <v>0.04707142172238711</v>
       </c>
     </row>
     <row r="8">
@@ -848,34 +848,34 @@
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.001114964693199499</v>
+        <v>0.001117526286546223</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007007940192837326</v>
+        <v>0.0077966244135473</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002062411426292823</v>
+        <v>0.002013898184202713</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03034865396988159</v>
+        <v>0.02964561322930099</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03416974306824046</v>
+        <v>0.03553458914465197</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06758166290375024</v>
+        <v>0.06760434314338515</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001656735962249319</v>
+        <v>0.001519751477056488</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01532565760926152</v>
+        <v>0.01527311620356435</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01939644488386331</v>
+        <v>0.01947801015898851</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0398049116011011</v>
+        <v>0.03995054962492421</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.008363716208697653</v>
+        <v>0.006725665195209335</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01062844166880676</v>
+        <v>0.01078101287714117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02162894300644439</v>
+        <v>0.02199310903132032</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01186218575841455</v>
+        <v>0.01143532480593479</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05614742048249201</v>
+        <v>0.05696373581729504</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06024218064726568</v>
+        <v>0.06455119647037923</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09423822492322767</v>
+        <v>0.09322099340288134</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.007457589983299033</v>
+        <v>0.00757888720583721</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02787790282364629</v>
+        <v>0.02848858323534062</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03372837348125519</v>
+        <v>0.0332590466207171</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05485746603067911</v>
+        <v>0.0549532868789263</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001578361999306104</v>
+        <v>0.001541544944100009</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001236105036380344</v>
+        <v>0.00123825111971636</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00483714667640602</v>
+        <v>0.004236675418587694</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002540596043468033</v>
+        <v>0.002605536228280231</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02296250040956409</v>
+        <v>0.02364144317837478</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01972006137912777</v>
+        <v>0.01880843028709071</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06658255945435118</v>
+        <v>0.06541983540983776</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002795265513671525</v>
+        <v>0.003085251639068938</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01304988664688684</v>
+        <v>0.01348486270676117</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01124669546094839</v>
+        <v>0.01139941136782818</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03761865807460667</v>
+        <v>0.03753140764980201</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01518390840979489</v>
+        <v>0.01397500524560388</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01066018817692567</v>
+        <v>0.01056135343546856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008241338143006082</v>
+        <v>0.009581618032056965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01912043495791069</v>
+        <v>0.01894730393541692</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01560833370968197</v>
+        <v>0.01599405693680658</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05210603145859416</v>
+        <v>0.05233885476831563</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04490564689080228</v>
+        <v>0.04351144401033369</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.101677211842026</v>
+        <v>0.1024559608396817</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01135367166397121</v>
+        <v>0.01206972401743726</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02783886446798988</v>
+        <v>0.02842806752189035</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02494759510550561</v>
+        <v>0.02436173036983716</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05645335725711048</v>
+        <v>0.05583244571384493</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.05073267364643806</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08392658246823786</v>
+        <v>0.08392658246823788</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.004668738903083117</v>
@@ -1101,7 +1101,7 @@
         <v>0.02858671736230781</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05318737250964253</v>
+        <v>0.05318737250964254</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001715848180610399</v>
+        <v>0.001726329457359984</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001021383934405646</v>
+        <v>0.001030985606661368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0009824225348461077</v>
+        <v>0.0009867687908426939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01078725818753237</v>
+        <v>0.01071782120989715</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001871896342197244</v>
+        <v>0.001851522820377563</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02161002808639654</v>
+        <v>0.02110855970186719</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03753953313662826</v>
+        <v>0.03768192147408406</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07044559765325063</v>
+        <v>0.07183191598541286</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002317260528075276</v>
+        <v>0.00234002163761626</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01300373934937975</v>
+        <v>0.01302881977077514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02161258647914669</v>
+        <v>0.02070283863671472</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04551341515322649</v>
+        <v>0.04524575024055549</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01010196719007409</v>
+        <v>0.009858555606348202</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009256334530484384</v>
+        <v>0.0102663918289442</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.009732097928499389</v>
+        <v>0.00977910471511719</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03212558115206306</v>
+        <v>0.03040398345480656</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01170477251676047</v>
+        <v>0.01149833344561541</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04272436402496879</v>
+        <v>0.04318653640166712</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06786306219794241</v>
+        <v>0.06697395891122927</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0990211973966746</v>
+        <v>0.09975877410753699</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.00850760919546757</v>
+        <v>0.008230689678326658</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02421047050009963</v>
+        <v>0.02546730994069321</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03718781017195757</v>
+        <v>0.03729498562774894</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06308060711442369</v>
+        <v>0.06294827890903969</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.04391016616018439</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08335939018949527</v>
+        <v>0.08335939018949524</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.004992683250538844</v>
@@ -1237,7 +1237,7 @@
         <v>0.02448702030884812</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04935247601522098</v>
+        <v>0.049352476015221</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0026362524286757</v>
+        <v>0.002614435593765683</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001183357458395933</v>
+        <v>0.001148836522976584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002457876952140602</v>
+        <v>0.002451862050430793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009490426092679763</v>
+        <v>0.009850761454614766</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003391280361682762</v>
+        <v>0.003302504445240993</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02837819079844674</v>
+        <v>0.02807869117532977</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03722838677037966</v>
+        <v>0.03728095033833351</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07564579918247535</v>
+        <v>0.07616482588294896</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.003440422952687366</v>
+        <v>0.003505247300488199</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01566128265475742</v>
+        <v>0.0157646202844638</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02085968541148665</v>
+        <v>0.02096009120129991</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04508302511540447</v>
+        <v>0.04515796549293816</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.007299205830375028</v>
+        <v>0.007122860897009029</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.004764239899436434</v>
+        <v>0.004637166010440964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006812800104598631</v>
+        <v>0.007043768335075613</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01785674746800205</v>
+        <v>0.0178347658486354</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.008469660939762112</v>
+        <v>0.008365341556381946</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04189306408618267</v>
+        <v>0.04085140210407929</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05102867192285026</v>
+        <v>0.05127260756408346</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09057722051449342</v>
+        <v>0.09136920961432299</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.006830873441746001</v>
+        <v>0.006899424838783807</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02250917192163862</v>
+        <v>0.02270727511248639</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02850994058823742</v>
+        <v>0.02861783367497479</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05406271006467305</v>
+        <v>0.05434837223615735</v>
       </c>
     </row>
     <row r="19">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1011</v>
+        <v>1079</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1022</v>
+        <v>1057</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3705</v>
+        <v>3669</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11548</v>
+        <v>12107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21719</v>
+        <v>20762</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>55533</v>
+        <v>53104</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3882</v>
+        <v>3894</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>13572</v>
+        <v>13668</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>24007</v>
+        <v>25034</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>59651</v>
+        <v>59486</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10093</v>
+        <v>11570</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7340</v>
+        <v>6338</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9369</v>
+        <v>10035</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13034</v>
+        <v>13307</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9064</v>
+        <v>9573</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32243</v>
+        <v>30237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>42699</v>
+        <v>43166</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>80104</v>
+        <v>79313</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15792</v>
+        <v>14279</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>32990</v>
+        <v>34658</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>48318</v>
+        <v>49192</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>85704</v>
+        <v>86523</v>
       </c>
     </row>
     <row r="8">
@@ -1780,34 +1780,34 @@
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7351</v>
+        <v>8178</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1997</v>
+        <v>1950</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>31226</v>
+        <v>30503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35636</v>
+        <v>37059</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>72343</v>
+        <v>72368</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3198</v>
+        <v>2933</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>31370</v>
+        <v>31262</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>40060</v>
+        <v>40229</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>84362</v>
+        <v>84670</v>
       </c>
     </row>
     <row r="11">
@@ -1818,38 +1818,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8044</v>
+        <v>6469</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>10867</v>
+        <v>11023</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22687</v>
+        <v>23069</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11487</v>
+        <v>11074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>57771</v>
+        <v>58611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>62827</v>
+        <v>67321</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>100878</v>
+        <v>99789</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14395</v>
+        <v>14629</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>57062</v>
+        <v>58312</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>69661</v>
+        <v>68691</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>116264</v>
+        <v>116467</v>
       </c>
     </row>
     <row r="12">
@@ -1952,40 +1952,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3880</v>
+        <v>3398</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1737</v>
+        <v>1782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>17825</v>
+        <v>18352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15480</v>
+        <v>14765</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>53994</v>
+        <v>53051</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3808</v>
+        <v>4203</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>20003</v>
+        <v>20670</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>17371</v>
+        <v>17607</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>60680</v>
+        <v>60539</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10302</v>
+        <v>9482</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8065</v>
+        <v>7990</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6260</v>
+        <v>7278</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15336</v>
+        <v>15197</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10674</v>
+        <v>10937</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>40449</v>
+        <v>40630</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35251</v>
+        <v>34157</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>82454</v>
+        <v>83086</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>15468</v>
+        <v>16443</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>42672</v>
+        <v>43575</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>38533</v>
+        <v>37628</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>91061</v>
+        <v>90059</v>
       </c>
     </row>
     <row r="16">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10680</v>
+        <v>10611</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22685</v>
+        <v>22159</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>39183</v>
+        <v>39332</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>78690</v>
+        <v>80238</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4590</v>
+        <v>4635</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>25951</v>
+        <v>26001</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>42822</v>
+        <v>41019</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>95901</v>
+        <v>95337</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9518</v>
+        <v>9289</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8756</v>
+        <v>9711</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9124</v>
+        <v>9169</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31806</v>
+        <v>30102</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12157</v>
+        <v>11942</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44850</v>
+        <v>45335</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>70834</v>
+        <v>69906</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>110610</v>
+        <v>111434</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>16852</v>
+        <v>16304</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>48316</v>
+        <v>50825</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>73682</v>
+        <v>73894</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>132917</v>
+        <v>132638</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8635</v>
+        <v>8564</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4048</v>
+        <v>3930</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8343</v>
+        <v>8322</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>33518</v>
+        <v>34791</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11460</v>
+        <v>11160</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>100666</v>
+        <v>99603</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>131958</v>
+        <v>132144</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>282275</v>
+        <v>284212</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22895</v>
+        <v>23326</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>109135</v>
+        <v>109855</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>144743</v>
+        <v>145440</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>327452</v>
+        <v>327997</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
+        <v>23331</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>15865</v>
+      </c>
+      <c r="E23" s="6" t="n">
         <v>23909</v>
       </c>
-      <c r="D23" s="6" t="n">
-        <v>16299</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>23125</v>
-      </c>
       <c r="F23" s="6" t="n">
-        <v>63066</v>
+        <v>62988</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28621</v>
+        <v>28268</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>148607</v>
+        <v>144912</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>180873</v>
+        <v>181738</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>337993</v>
+        <v>340948</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>45458</v>
+        <v>45914</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>156855</v>
+        <v>158235</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>197827</v>
+        <v>198576</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>392675</v>
+        <v>394749</v>
       </c>
     </row>
     <row r="24">
